--- a/xlsx/亞美尼亞_intext.xlsx
+++ b/xlsx/亞美尼亞_intext.xlsx
@@ -29,7 +29,7 @@
     <t>亞美尼亞國旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_亞美尼亞</t>
+    <t>体育运动_体育运动_伊朗_亞美尼亞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E%E5%9C%8B%E5%BE%BD</t>
@@ -380,126 +380,132 @@
     <t>喬治亞</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86</t>
+  </si>
+  <si>
+    <t>阿塞拜疆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
+  </si>
+  <si>
+    <t>伊朗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%B8%8C%E5%88%87%E8%90%AC%E8%87%AA%E6%B2%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>納希切萬自治共和國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%87%8C%E6%BA%AB</t>
+  </si>
+  <si>
+    <t>埃里溫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF%E8%A7%A3%E9%AB%94</t>
+  </si>
+  <si>
+    <t>蘇聯解體</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
+  </si>
+  <si>
+    <t>蘇聯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E6%88%88%E7%88%BE%E8%AB%BE%EF%BC%8D%E5%8D%A1%E6%8B%89%E5%B7%B4%E8%B5%AB</t>
+  </si>
+  <si>
+    <t>納戈爾諾－卡拉巴赫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E6%9B%BC%E5%B8%9D%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>奧斯曼帝國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E%E7%A8%AE%E6%97%8F%E5%A4%A7%E5%B1%A0%E6%AE%BA</t>
+  </si>
+  <si>
+    <t>亞美尼亞種族大屠殺</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E%E7%A8%AE%E6%97%8F%E5%A4%A7%E5%B1%A0%E6%AE%BA%E7%9A%84%E6%89%BF%E8%AA%8D</t>
+  </si>
+  <si>
+    <t>對亞美尼亞種族大屠殺的承認</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E5%A7%94%E5%91%98%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>欧洲委员会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E4%BD%93%E5%AE%89%E5%85%A8%E6%9D%A1%E7%BA%A6%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>集体安全条约组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E8%A2%AB%E6%99%AE%E9%81%8D%E6%89%BF%E8%AE%A4%E7%9A%84%E5%9B%BD%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>未被普遍承认的国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%89%8E%E8%B5%AB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>阿尔扎赫共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%99%B8%E5%9C%8B%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>內陸國家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99</t>
+  </si>
+  <si>
+    <t>基督教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E6%AD%A3%E7%B5%B1%E6%95%99%E6%9C%83</t>
+  </si>
+  <si>
+    <t>東方正統教會</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%99%AE%E7%89%B9%E6%AD%A3%E6%95%99%E6%9C%83</t>
+  </si>
+  <si>
+    <t>科普特正教會</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>伊斯蘭國家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>格鲁吉亚</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%A1%9E%E6%8B%9C%E7%84%B6</t>
   </si>
   <si>
     <t>亞塞拜然</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
-  </si>
-  <si>
-    <t>伊朗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%B8%8C%E5%88%87%E8%90%AC%E8%87%AA%E6%B2%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>納希切萬自治共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E9%87%8C%E6%BA%AB</t>
-  </si>
-  <si>
-    <t>埃里溫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF%E8%A7%A3%E9%AB%94</t>
-  </si>
-  <si>
-    <t>蘇聯解體</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
-  </si>
-  <si>
-    <t>蘇聯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E6%88%88%E7%88%BE%E8%AB%BE%EF%BC%8D%E5%8D%A1%E6%8B%89%E5%B7%B4%E8%B5%AB</t>
-  </si>
-  <si>
-    <t>納戈爾諾－卡拉巴赫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E6%9B%BC%E5%B8%9D%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>奧斯曼帝國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E%E7%A8%AE%E6%97%8F%E5%A4%A7%E5%B1%A0%E6%AE%BA</t>
-  </si>
-  <si>
-    <t>亞美尼亞種族大屠殺</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E%E7%A8%AE%E6%97%8F%E5%A4%A7%E5%B1%A0%E6%AE%BA%E7%9A%84%E6%89%BF%E8%AA%8D</t>
-  </si>
-  <si>
-    <t>對亞美尼亞種族大屠殺的承認</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E5%A7%94%E5%91%98%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>欧洲委员会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E4%BD%93%E5%AE%89%E5%85%A8%E6%9D%A1%E7%BA%A6%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>集体安全条约组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E8%A2%AB%E6%99%AE%E9%81%8D%E6%89%BF%E8%AE%A4%E7%9A%84%E5%9B%BD%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>未被普遍承认的国家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%89%8E%E8%B5%AB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>阿尔扎赫共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%99%B8%E5%9C%8B%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>內陸國家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99</t>
-  </si>
-  <si>
-    <t>基督教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E6%AD%A3%E7%B5%B1%E6%95%99%E6%9C%83</t>
-  </si>
-  <si>
-    <t>東方正統教會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%99%AE%E7%89%B9%E6%AD%A3%E6%95%99%E6%9C%83</t>
-  </si>
-  <si>
-    <t>科普特正教會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>伊斯蘭國家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>格鲁吉亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%B8%8C%E5%A5%91%E5%87%A1%E8%87%AA%E6%B2%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
@@ -1920,12 +1926,6 @@
   </si>
   <si>
     <t>阿曼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86</t>
-  </si>
-  <si>
-    <t>阿塞拜疆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%89%8E%E8%B5%AB</t>
@@ -4943,7 +4943,7 @@
         <v>96</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="s">
         <v>4</v>
@@ -5349,7 +5349,7 @@
         <v>122</v>
       </c>
       <c r="G65" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H65" t="s">
         <v>4</v>
@@ -5929,7 +5929,7 @@
         <v>162</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H85" t="s">
         <v>4</v>
@@ -5958,7 +5958,7 @@
         <v>164</v>
       </c>
       <c r="G86" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H86" t="s">
         <v>4</v>
@@ -5987,7 +5987,7 @@
         <v>166</v>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H87" t="s">
         <v>4</v>
@@ -6016,7 +6016,7 @@
         <v>168</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
@@ -6074,7 +6074,7 @@
         <v>172</v>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90" t="s">
         <v>4</v>
@@ -6103,7 +6103,7 @@
         <v>174</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H91" t="s">
         <v>4</v>
@@ -6132,7 +6132,7 @@
         <v>176</v>
       </c>
       <c r="G92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H92" t="s">
         <v>4</v>
@@ -6161,7 +6161,7 @@
         <v>178</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H93" t="s">
         <v>4</v>
@@ -6190,7 +6190,7 @@
         <v>180</v>
       </c>
       <c r="G94" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H94" t="s">
         <v>4</v>
@@ -6219,7 +6219,7 @@
         <v>182</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H95" t="s">
         <v>4</v>
@@ -6248,7 +6248,7 @@
         <v>184</v>
       </c>
       <c r="G96" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H96" t="s">
         <v>4</v>
@@ -6277,7 +6277,7 @@
         <v>186</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H97" t="s">
         <v>4</v>
@@ -6335,7 +6335,7 @@
         <v>190</v>
       </c>
       <c r="G99" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H99" t="s">
         <v>4</v>
@@ -6364,7 +6364,7 @@
         <v>192</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
@@ -6387,13 +6387,13 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="F101" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="G101" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
@@ -6416,13 +6416,13 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="F102" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H102" t="s">
         <v>4</v>
@@ -6451,7 +6451,7 @@
         <v>196</v>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H103" t="s">
         <v>4</v>
@@ -6480,7 +6480,7 @@
         <v>198</v>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H104" t="s">
         <v>4</v>
@@ -6538,7 +6538,7 @@
         <v>202</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H106" t="s">
         <v>4</v>
@@ -6596,7 +6596,7 @@
         <v>206</v>
       </c>
       <c r="G108" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H108" t="s">
         <v>4</v>
@@ -6625,7 +6625,7 @@
         <v>208</v>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H109" t="s">
         <v>4</v>
@@ -6648,13 +6648,13 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="F110" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H110" t="s">
         <v>4</v>
@@ -6677,10 +6677,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="F111" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6712,7 +6712,7 @@
         <v>212</v>
       </c>
       <c r="G112" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H112" t="s">
         <v>4</v>
@@ -6741,7 +6741,7 @@
         <v>214</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
         <v>4</v>
@@ -6828,7 +6828,7 @@
         <v>220</v>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -6886,7 +6886,7 @@
         <v>224</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H118" t="s">
         <v>4</v>
@@ -6915,7 +6915,7 @@
         <v>226</v>
       </c>
       <c r="G119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H119" t="s">
         <v>4</v>
@@ -6944,7 +6944,7 @@
         <v>228</v>
       </c>
       <c r="G120" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H120" t="s">
         <v>4</v>
@@ -6973,7 +6973,7 @@
         <v>230</v>
       </c>
       <c r="G121" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H121" t="s">
         <v>4</v>
@@ -7002,7 +7002,7 @@
         <v>232</v>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H122" t="s">
         <v>4</v>
@@ -7060,7 +7060,7 @@
         <v>236</v>
       </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
@@ -7118,7 +7118,7 @@
         <v>240</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H126" t="s">
         <v>4</v>
@@ -7263,7 +7263,7 @@
         <v>250</v>
       </c>
       <c r="G131" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H131" t="s">
         <v>4</v>
@@ -7292,7 +7292,7 @@
         <v>252</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H132" t="s">
         <v>4</v>
@@ -7350,7 +7350,7 @@
         <v>256</v>
       </c>
       <c r="G134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H134" t="s">
         <v>4</v>
@@ -7379,7 +7379,7 @@
         <v>258</v>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H135" t="s">
         <v>4</v>
@@ -7431,13 +7431,13 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>181</v>
+        <v>261</v>
       </c>
       <c r="F137" t="s">
-        <v>182</v>
+        <v>262</v>
       </c>
       <c r="G137" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H137" t="s">
         <v>4</v>
@@ -7460,13 +7460,13 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c r="F138" t="s">
-        <v>262</v>
+        <v>184</v>
       </c>
       <c r="G138" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H138" t="s">
         <v>4</v>
@@ -7495,7 +7495,7 @@
         <v>264</v>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -7605,13 +7605,13 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>137</v>
+        <v>271</v>
       </c>
       <c r="F143" t="s">
-        <v>138</v>
+        <v>272</v>
       </c>
       <c r="G143" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H143" t="s">
         <v>4</v>
@@ -7634,13 +7634,13 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>271</v>
+        <v>137</v>
       </c>
       <c r="F144" t="s">
-        <v>272</v>
+        <v>138</v>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H144" t="s">
         <v>4</v>
@@ -7669,7 +7669,7 @@
         <v>274</v>
       </c>
       <c r="G145" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H145" t="s">
         <v>4</v>
@@ -7727,7 +7727,7 @@
         <v>278</v>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H147" t="s">
         <v>4</v>
@@ -7756,7 +7756,7 @@
         <v>280</v>
       </c>
       <c r="G148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
@@ -7785,7 +7785,7 @@
         <v>282</v>
       </c>
       <c r="G149" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H149" t="s">
         <v>4</v>
@@ -7872,7 +7872,7 @@
         <v>288</v>
       </c>
       <c r="G152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H152" t="s">
         <v>4</v>
@@ -7895,13 +7895,13 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>9</v>
+        <v>289</v>
       </c>
       <c r="F153" t="s">
-        <v>10</v>
+        <v>290</v>
       </c>
       <c r="G153" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -7924,13 +7924,13 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>289</v>
+        <v>9</v>
       </c>
       <c r="F154" t="s">
-        <v>290</v>
+        <v>10</v>
       </c>
       <c r="G154" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
@@ -7959,7 +7959,7 @@
         <v>292</v>
       </c>
       <c r="G155" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H155" t="s">
         <v>4</v>
@@ -7988,7 +7988,7 @@
         <v>294</v>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H156" t="s">
         <v>4</v>
@@ -8191,7 +8191,7 @@
         <v>308</v>
       </c>
       <c r="G163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H163" t="s">
         <v>4</v>
@@ -8220,7 +8220,7 @@
         <v>310</v>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H164" t="s">
         <v>4</v>
@@ -8249,7 +8249,7 @@
         <v>312</v>
       </c>
       <c r="G165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H165" t="s">
         <v>4</v>
@@ -8278,7 +8278,7 @@
         <v>314</v>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H166" t="s">
         <v>4</v>
@@ -8307,7 +8307,7 @@
         <v>316</v>
       </c>
       <c r="G167" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H167" t="s">
         <v>4</v>
@@ -8336,7 +8336,7 @@
         <v>318</v>
       </c>
       <c r="G168" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H168" t="s">
         <v>4</v>
@@ -8626,7 +8626,7 @@
         <v>338</v>
       </c>
       <c r="G178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H178" t="s">
         <v>4</v>
@@ -8655,7 +8655,7 @@
         <v>340</v>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H179" t="s">
         <v>4</v>
@@ -8684,7 +8684,7 @@
         <v>342</v>
       </c>
       <c r="G180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H180" t="s">
         <v>4</v>
@@ -8713,7 +8713,7 @@
         <v>344</v>
       </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H181" t="s">
         <v>4</v>
@@ -8771,7 +8771,7 @@
         <v>348</v>
       </c>
       <c r="G183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H183" t="s">
         <v>4</v>
@@ -8858,7 +8858,7 @@
         <v>354</v>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H186" t="s">
         <v>4</v>
@@ -8887,7 +8887,7 @@
         <v>356</v>
       </c>
       <c r="G187" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H187" t="s">
         <v>4</v>
@@ -8916,7 +8916,7 @@
         <v>358</v>
       </c>
       <c r="G188" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H188" t="s">
         <v>4</v>
@@ -8945,7 +8945,7 @@
         <v>360</v>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H189" t="s">
         <v>4</v>
@@ -9119,7 +9119,7 @@
         <v>372</v>
       </c>
       <c r="G195" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H195" t="s">
         <v>4</v>
@@ -9148,7 +9148,7 @@
         <v>374</v>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H196" t="s">
         <v>4</v>
@@ -9177,7 +9177,7 @@
         <v>376</v>
       </c>
       <c r="G197" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H197" t="s">
         <v>4</v>
@@ -9206,7 +9206,7 @@
         <v>378</v>
       </c>
       <c r="G198" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H198" t="s">
         <v>4</v>
@@ -9264,7 +9264,7 @@
         <v>382</v>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H200" t="s">
         <v>4</v>
@@ -9293,7 +9293,7 @@
         <v>384</v>
       </c>
       <c r="G201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H201" t="s">
         <v>4</v>
@@ -9351,7 +9351,7 @@
         <v>388</v>
       </c>
       <c r="G203" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H203" t="s">
         <v>4</v>
@@ -9380,7 +9380,7 @@
         <v>390</v>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H204" t="s">
         <v>4</v>
@@ -9525,7 +9525,7 @@
         <v>400</v>
       </c>
       <c r="G209" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H209" t="s">
         <v>4</v>
@@ -9554,7 +9554,7 @@
         <v>402</v>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H210" t="s">
         <v>4</v>
@@ -9583,7 +9583,7 @@
         <v>404</v>
       </c>
       <c r="G211" t="n">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="H211" t="s">
         <v>4</v>
@@ -9612,7 +9612,7 @@
         <v>406</v>
       </c>
       <c r="G212" t="n">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="H212" t="s">
         <v>4</v>
@@ -9641,7 +9641,7 @@
         <v>408</v>
       </c>
       <c r="G213" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H213" t="s">
         <v>4</v>
@@ -9670,7 +9670,7 @@
         <v>410</v>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H214" t="s">
         <v>4</v>
@@ -9699,7 +9699,7 @@
         <v>412</v>
       </c>
       <c r="G215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H215" t="s">
         <v>4</v>
@@ -9728,7 +9728,7 @@
         <v>414</v>
       </c>
       <c r="G216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H216" t="s">
         <v>4</v>
@@ -9757,7 +9757,7 @@
         <v>416</v>
       </c>
       <c r="G217" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H217" t="s">
         <v>4</v>
@@ -9786,7 +9786,7 @@
         <v>418</v>
       </c>
       <c r="G218" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H218" t="s">
         <v>4</v>
@@ -9815,7 +9815,7 @@
         <v>420</v>
       </c>
       <c r="G219" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H219" t="s">
         <v>4</v>
@@ -9873,7 +9873,7 @@
         <v>424</v>
       </c>
       <c r="G221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H221" t="s">
         <v>4</v>
@@ -9902,7 +9902,7 @@
         <v>426</v>
       </c>
       <c r="G222" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H222" t="s">
         <v>4</v>
@@ -9931,7 +9931,7 @@
         <v>428</v>
       </c>
       <c r="G223" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H223" t="s">
         <v>4</v>
@@ -9989,7 +9989,7 @@
         <v>432</v>
       </c>
       <c r="G225" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H225" t="s">
         <v>4</v>
@@ -10018,7 +10018,7 @@
         <v>434</v>
       </c>
       <c r="G226" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H226" t="s">
         <v>4</v>
@@ -10047,7 +10047,7 @@
         <v>436</v>
       </c>
       <c r="G227" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H227" t="s">
         <v>4</v>
@@ -10076,7 +10076,7 @@
         <v>438</v>
       </c>
       <c r="G228" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H228" t="s">
         <v>4</v>
@@ -10105,7 +10105,7 @@
         <v>440</v>
       </c>
       <c r="G229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H229" t="s">
         <v>4</v>
@@ -10134,7 +10134,7 @@
         <v>442</v>
       </c>
       <c r="G230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H230" t="s">
         <v>4</v>
@@ -10250,7 +10250,7 @@
         <v>450</v>
       </c>
       <c r="G234" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H234" t="s">
         <v>4</v>
@@ -10279,7 +10279,7 @@
         <v>452</v>
       </c>
       <c r="G235" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H235" t="s">
         <v>4</v>
@@ -10308,7 +10308,7 @@
         <v>454</v>
       </c>
       <c r="G236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H236" t="s">
         <v>4</v>
@@ -10337,7 +10337,7 @@
         <v>456</v>
       </c>
       <c r="G237" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H237" t="s">
         <v>4</v>
@@ -10482,7 +10482,7 @@
         <v>466</v>
       </c>
       <c r="G242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H242" t="s">
         <v>4</v>
@@ -10511,7 +10511,7 @@
         <v>468</v>
       </c>
       <c r="G243" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H243" t="s">
         <v>4</v>
@@ -10540,7 +10540,7 @@
         <v>470</v>
       </c>
       <c r="G244" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H244" t="s">
         <v>4</v>
@@ -10569,7 +10569,7 @@
         <v>472</v>
       </c>
       <c r="G245" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H245" t="s">
         <v>4</v>
@@ -10598,7 +10598,7 @@
         <v>474</v>
       </c>
       <c r="G246" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H246" t="s">
         <v>4</v>
@@ -10627,7 +10627,7 @@
         <v>476</v>
       </c>
       <c r="G247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H247" t="s">
         <v>4</v>
@@ -10656,7 +10656,7 @@
         <v>478</v>
       </c>
       <c r="G248" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H248" t="s">
         <v>4</v>
@@ -10685,7 +10685,7 @@
         <v>480</v>
       </c>
       <c r="G249" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H249" t="s">
         <v>4</v>
@@ -10714,7 +10714,7 @@
         <v>482</v>
       </c>
       <c r="G250" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H250" t="s">
         <v>4</v>
@@ -10772,7 +10772,7 @@
         <v>486</v>
       </c>
       <c r="G252" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H252" t="s">
         <v>4</v>
@@ -10801,7 +10801,7 @@
         <v>488</v>
       </c>
       <c r="G253" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H253" t="s">
         <v>4</v>
@@ -10882,10 +10882,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>281</v>
+        <v>493</v>
       </c>
       <c r="F256" t="s">
-        <v>282</v>
+        <v>494</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10911,13 +10911,13 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>493</v>
+        <v>283</v>
       </c>
       <c r="F257" t="s">
-        <v>494</v>
+        <v>284</v>
       </c>
       <c r="G257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H257" t="s">
         <v>4</v>
@@ -10946,7 +10946,7 @@
         <v>496</v>
       </c>
       <c r="G258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H258" t="s">
         <v>4</v>
@@ -11265,7 +11265,7 @@
         <v>518</v>
       </c>
       <c r="G269" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H269" t="s">
         <v>4</v>
@@ -11294,7 +11294,7 @@
         <v>520</v>
       </c>
       <c r="G270" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H270" t="s">
         <v>4</v>
@@ -11352,7 +11352,7 @@
         <v>524</v>
       </c>
       <c r="G272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H272" t="s">
         <v>4</v>
@@ -11381,7 +11381,7 @@
         <v>526</v>
       </c>
       <c r="G273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H273" t="s">
         <v>4</v>
@@ -11410,7 +11410,7 @@
         <v>528</v>
       </c>
       <c r="G274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H274" t="s">
         <v>4</v>
@@ -11439,7 +11439,7 @@
         <v>530</v>
       </c>
       <c r="G275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H275" t="s">
         <v>4</v>
@@ -11729,7 +11729,7 @@
         <v>550</v>
       </c>
       <c r="G285" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H285" t="s">
         <v>4</v>
@@ -11758,7 +11758,7 @@
         <v>552</v>
       </c>
       <c r="G286" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H286" t="s">
         <v>4</v>
@@ -11787,7 +11787,7 @@
         <v>554</v>
       </c>
       <c r="G287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H287" t="s">
         <v>4</v>
@@ -11897,13 +11897,13 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>299</v>
+        <v>561</v>
       </c>
       <c r="F291" t="s">
-        <v>300</v>
+        <v>562</v>
       </c>
       <c r="G291" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H291" t="s">
         <v>4</v>
@@ -11926,13 +11926,13 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>445</v>
+        <v>301</v>
       </c>
       <c r="F292" t="s">
-        <v>446</v>
+        <v>302</v>
       </c>
       <c r="G292" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H292" t="s">
         <v>4</v>
@@ -11955,13 +11955,13 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="F293" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="G293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H293" t="s">
         <v>4</v>
@@ -11984,10 +11984,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="F294" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -12013,10 +12013,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>561</v>
+        <v>429</v>
       </c>
       <c r="F295" t="s">
-        <v>562</v>
+        <v>430</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12048,7 +12048,7 @@
         <v>564</v>
       </c>
       <c r="G296" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H296" t="s">
         <v>4</v>
@@ -12077,7 +12077,7 @@
         <v>566</v>
       </c>
       <c r="G297" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H297" t="s">
         <v>4</v>
@@ -12135,7 +12135,7 @@
         <v>570</v>
       </c>
       <c r="G299" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H299" t="s">
         <v>4</v>
@@ -12164,7 +12164,7 @@
         <v>572</v>
       </c>
       <c r="G300" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H300" t="s">
         <v>4</v>
@@ -12193,7 +12193,7 @@
         <v>574</v>
       </c>
       <c r="G301" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H301" t="s">
         <v>4</v>
@@ -12251,7 +12251,7 @@
         <v>578</v>
       </c>
       <c r="G303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H303" t="s">
         <v>4</v>
@@ -12309,7 +12309,7 @@
         <v>582</v>
       </c>
       <c r="G305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H305" t="s">
         <v>4</v>
@@ -12367,7 +12367,7 @@
         <v>586</v>
       </c>
       <c r="G307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H307" t="s">
         <v>4</v>
@@ -12425,7 +12425,7 @@
         <v>590</v>
       </c>
       <c r="G309" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H309" t="s">
         <v>4</v>
@@ -12483,7 +12483,7 @@
         <v>594</v>
       </c>
       <c r="G311" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H311" t="s">
         <v>4</v>
@@ -12512,7 +12512,7 @@
         <v>596</v>
       </c>
       <c r="G312" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H312" t="s">
         <v>4</v>
@@ -12541,7 +12541,7 @@
         <v>598</v>
       </c>
       <c r="G313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H313" t="s">
         <v>4</v>
@@ -12570,7 +12570,7 @@
         <v>600</v>
       </c>
       <c r="G314" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H314" t="s">
         <v>4</v>
@@ -12599,7 +12599,7 @@
         <v>602</v>
       </c>
       <c r="G315" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H315" t="s">
         <v>4</v>
@@ -12628,7 +12628,7 @@
         <v>604</v>
       </c>
       <c r="G316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H316" t="s">
         <v>4</v>
@@ -12831,7 +12831,7 @@
         <v>618</v>
       </c>
       <c r="G323" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H323" t="s">
         <v>4</v>
@@ -12860,7 +12860,7 @@
         <v>620</v>
       </c>
       <c r="G324" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H324" t="s">
         <v>4</v>
@@ -13005,7 +13005,7 @@
         <v>630</v>
       </c>
       <c r="G329" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H329" t="s">
         <v>4</v>
@@ -13092,7 +13092,7 @@
         <v>636</v>
       </c>
       <c r="G332" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H332" t="s">
         <v>4</v>
@@ -16769,10 +16769,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F459" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16943,10 +16943,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="F465" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17146,10 +17146,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F472" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G472" t="n">
         <v>2</v>
@@ -18219,10 +18219,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F509" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18828,10 +18828,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F530" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G530" t="n">
         <v>19</v>
@@ -18857,10 +18857,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F531" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G531" t="n">
         <v>19</v>
